--- a/P0002/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0002/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,132 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0002\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6675F602-FC9E-4563-B8D1-1DEC85816560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{6675F602-FC9E-4563-B8D1-1DEC85816560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03B1E28-DE05-4E03-9CE5-3FE4E0BA815B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Descripción (objeto, supuestos, resultados)</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Tipo del Modelo</t>
-  </si>
-  <si>
-    <t>área de conocimiento del modelo</t>
-  </si>
-  <si>
-    <t>Se cuenta con archivos  Nativos</t>
-  </si>
-  <si>
-    <t>Archivos del Modelo</t>
-  </si>
-  <si>
-    <t>Software (Nombre y versión)</t>
-  </si>
-  <si>
-    <t>Tipo de Licencia</t>
-  </si>
-  <si>
-    <t>Nivel de consumo de recursos computacionales</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado 1</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado2</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado3</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado4</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado5</t>
-  </si>
-  <si>
-    <t>Cantidad de Escenarios simulados</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 1</t>
-  </si>
-  <si>
-    <t>Descripción escenario 1</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 2</t>
-  </si>
-  <si>
-    <t>Descripción escenario 2</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 3</t>
-  </si>
-  <si>
-    <t>Descripción escenario 3</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 4</t>
-  </si>
-  <si>
-    <t>Descripción escenario 4</t>
-  </si>
-  <si>
-    <t>Nombre escenario 5</t>
-  </si>
-  <si>
-    <t>Descripción escenario 5</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
   </si>
   <si>
     <t>P0002</t>
@@ -138,12 +185,18 @@
     <t>Modelo hidrogeológico numérico</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/05_MODELOS/03_MODELO_HIDROGEOLOGICO/MODELOS_NATIVOS_2022</t>
+  </si>
+  <si>
     <t>PNUD</t>
   </si>
   <si>
     <t>PUJ (PONTIFICIA UNIVERSIDAD JAVERIANA) IJA (INSTITUTO JAVERIANO DEL AGUA</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modelo hidrogeológico numérico en estado estacionario de la región de la Mojana (11 municipios) 11000km2, se extiende hasta el dominio hidrogeológico, para un área total de modelación de 22000km2. El modelo desarrolla una perspectiva regional preliminar del comportamiento hidráulico subterráneo en el núcleo de la Mojana, respecto a zonas de recarga, direcciones de flujo, medida de los niveles freáticos, flujos base, manchas de cuerpos hídricos superficiales (zonas de descarga). Es importante mencionar que los pozos ubicados en el núcleo de la Mojana extraen agua subterránea de los depósitos cuaternarios recientes y de algunas formaciones que afloran (profundidad no mayor a 200m), por lo que la respuesta del modelo es más aproximada para estas formaciones, las demás presentan mayor incertidumbre en los resultados.  El modelo hidrogeológico regional de la Mojana puede ser usado para definir condiciones de contorno, construir modelos a escala local y evaluar efectos puntuales. También puede ser usado para estimar balances de masa en todo el sistema o en áreas específicas, evaluar el efecto en los niveles freáticos con la construcción de baterias de pozos. Definir perímetros de protección de pozos. Evaluar dirección de contaminantes. </t>
   </si>
   <si>
@@ -159,13 +212,8 @@
     <t>SI</t>
   </si>
   <si>
-    <t xml:space="preserve">m-1000-DRY10.nam _x000D_
-m-1000-CALI-nam _x000D_
-m-1000-WET.nam  </t>
-  </si>
-  <si>
-    <t>*MODFLOW 2005 _x000D_
-*MODFLOW-NWT  1.2_x000D_
+    <t>MODFLOW 2005 
+*MODFLOW-NWT  1.2
 *MODELMUSE</t>
   </si>
   <si>
@@ -189,7 +237,7 @@
     <t>PR0005</t>
   </si>
   <si>
-    <t>Escenario promedio CAL</t>
+    <t>Escenario promedio Calibración</t>
   </si>
   <si>
     <t>Escenario de calibración en condiciones promedio de precipitación. Este escenario considera la recarga potencial media anual, estimada a través del modelo hidrológico para condiciones promedio. Esta variable es el principal cambio para la evaluación de los otros escenarios. _x000D_
@@ -199,25 +247,28 @@
     <t>Escenario seco</t>
   </si>
   <si>
-    <t>Este escenario se implementa a partir del cambio en la recarga potencial media anual, estimada a través del modelo hidrológico para año niño (seco). Se consideran las mismas condiciones de entrada que para el escenario promedio calibración. Se obtienen resultados de carga hidráulica y flujo de descarga en superficie</t>
-  </si>
-  <si>
-    <t>Escenario para periodo húmedo, año niña</t>
-  </si>
-  <si>
-    <t>Este escenario se implementa a partir del cambio en la recarga potencial media anual, estimada a través del modelo hidrológico para año niña (húmedo).Se consideran las mismas condiciones de entrada que para el escenario promedio calibración. Se obtienen resultados de carga hidráulica y flujo de descarga en superficie</t>
+    <t>Escenario en condiciones secas, este escenario se implementa a partir del cambio en la recarga potencial media anual, estimada a través del modelo hidrológico para año niño (seco). Se consideran las mismas condiciones de entrada que para el escenario promedio calibración. Se obtienen resultados de carga hidráulica y flujo de descarga en superficie</t>
+  </si>
+  <si>
+    <t>Escenario húmedo</t>
+  </si>
+  <si>
+    <t>Escenario en condiciones húmedas, este escenario se implementa a partir del cambio en la recarga potencial media anual, estimada a través del modelo hidrológico para año niña (húmedo).Se consideran las mismas condiciones de entrada que para el escenario promedio calibración. Se obtienen resultados de carga hidráulica y flujo de descarga en superficie</t>
   </si>
   <si>
     <t>Es una primera aproximación numérica que busca representar la interacción agua superficial, agua subterránea en un área de estudio con gran complejidad como la región de La Mojana. El modelo se encuentra muy bien estructurado y soportado por una modelación conceptual que parte de información primaria y secundaria. Pese a esto se presentan zonas con alta incertidumbre en los resultados como la zona sur hacia Nechi, por la falta de información. Por otra parte los resultados de las conductividades hidráulicas son más apropiados para las capas donde se encuentran los pozos, los cuales no superan los 200m de profundidad. El modelo permite la actualización en la medida que se tenga mayor información de cada uno de sus atributos que lo conforman.</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua subterránea, pozo, nivel piezométrico, modelo numérico, hidrogeología, hidrogeológico, pruebas de bombeo, dirección de flujo, conexión, escenario seco, escenario húmedo. Protección de pozos. Dirección de contaminantes, carga hidráulica, modelo hidrogeológico, modelo geológico, calibración, descarga flujo base a superficie, recarga del acuífero. </t>
+    <t xml:space="preserve">Agua subterránea, pozo, nivel piezométrico, modelo numérico, hidrogeología, hidrogeológico, pruebas de bombeo, dirección de flujo, conexión, escenario seco, escenario húmedo, protección de pozos , dirección de contaminantes, carga hidráulica, modelo hidrogeológico, modelo geológico, calibración, descarga flujo base a superficie, recarga del acuífero. </t>
   </si>
   <si>
     <t>PR1002</t>
   </si>
   <si>
-    <t>Modelo Hidrológico numérico</t>
+    <t>Modelo hidrológico numérico</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/05_MODELOS/02_MODELO_HIDROLOGICO/02_Mojana_PNUD_v2.qgz</t>
   </si>
   <si>
     <t>El modelo hidrológico construido para 371 cuencas que drenan sus aguas hacia la región de la Mojana. A partir de información de climática diaria y mensual (1976-2015), suelos, topografía y coberturas se realiza un balance hídrico de tal forma que se obtenga valores mensuales y anuales de los principales componentes del ciclo hidrológico (precipitación, escorrentía, evapotranspiración y recarga) para la Mojana. Se caracteriza por por 125 tipos de suelo, 18 tipos de cobertura, 3 clases de pendiente, 371 subcuencas en un área simulación 38550.8 km2, 9755 URH y disponibilidad de 44 años (4 calentamiento).</t>
@@ -226,22 +277,14 @@
     <t xml:space="preserve">Representa la distribución espacial a nivel Unidad de Respuesta Hidrológica y de subcuenca la precipitación, caudales, escorrentía, evapotranspiración y recarga. </t>
   </si>
   <si>
-    <t>HIdrología</t>
-  </si>
-  <si>
-    <t>Mojana_PNUD_v2.qgz_x000D_
-Mojana_PNUD_v2.mdb_x000D_
-QSWATRef2012.mdb_x000D_
-Carpeta Scenarios, Watershed, Source</t>
-  </si>
-  <si>
-    <t>Modelo SWAT (Soil and Water Assessment Tool)._x000D_
+    <t>Hidrología</t>
+  </si>
+  <si>
+    <t>SWAT (Soil and Water Assessment Tool).
 QSWAT (plugin de SWAT para QGIS)</t>
   </si>
   <si>
-    <t>Diaria_x000D_
-Mensual_x000D_
-Anual</t>
+    <t>Procesador: 32 o 64 bit superior a 1.8 Ghz. Memoria Ram 8GB y Disco Duro 500GB</t>
   </si>
   <si>
     <t>PR0001</t>
@@ -256,13 +299,16 @@
     <t>Requiere Qgis y el plugin Qswat para abrir, visualizar y volver a correr el modelo hidrológico.</t>
   </si>
   <si>
-    <t>Hidrología, Precipitación, Recarga, Evapotranspiración, subcuencas, Escorrentía, Caudales</t>
+    <t>Hidrología, precipitación, recarga, evapotranspiración, subcuencas, escorrentía, caudales, SWAT</t>
   </si>
   <si>
     <t>PR1003</t>
   </si>
   <si>
-    <t>Modelo Hidrodinámico numérico</t>
+    <t>Modelo hidrodinámico numérico</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/05_MODELOS/01_MODELO_HIDRODINAMICO</t>
   </si>
   <si>
     <t>Modelo hidrodinámico numérico en estado no estacionario de la región de la Mojana. El objetivo del modelo es describir el comportamiento del flujo de agua sobre las cíenagas, caños y rios de la Mojana. Posee una malla computacional de aproximadamente 6 millones de elementos. Posee 4 condiciones de contorno de entrada (Río San Jorge, Río Cauca, Río Nechi y Río Caribona) y 2 de salida (en Pinillos y en Magangue), adicionalmente para las entradas de caudal en los caños utiliza terminos "fuente-sumidero" en lugares especificos del modelo. Se simularon 3 escenarios, a saber, un escenario de niveles altos (año hidrológico 2010), un escenario de niveles bajos (año hidrológico 2015) y un escenario de niveles típicos (año hidrológico 2019). Todos los escenarios iniciaron en el primer día del mes de octubre del año anterior, con el objetivo de realizar un calentamiento del modelo. Las condiciones iniciales del modelo se impusieron a la variable "surface elevation" para todos los caños y ciénagas dentro del dominio computacional, los valores impuestos fueron extraidos de las estaciones limnimetricas y limnigraficas de la zona para el día 15 de junio de 2018.</t>
@@ -271,14 +317,6 @@
     <t>Hidrodinámica</t>
   </si>
   <si>
-    <t>geometry.cli.qgz_x000D_
-geometry.slf_x000D_
-liquid_Mojana.lqd_x000D_
-sources.lqd_x000D_
-sources_data.src_x000D_
-T2D.cas</t>
-  </si>
-  <si>
     <t>TELEMAC 2D v8</t>
   </si>
   <si>
@@ -297,17 +335,14 @@
     <t>Modelo robusto con costo computacional elevado. Buena calidad del modelo de elevación digital empleado.  No tiene en cuenta ríos importantes como el Cauca, el Magdalena o el río Nechí.</t>
   </si>
   <si>
-    <t>Hidrodinámica, Telemac 2D, Velocidades de flujo de agua, Profundidades de flujo de agua, Mancha de inundación.</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>Hidrodinámica, Telemac 2D, Velocidades de flujo de agua, profundidades de flujo de agua, mancha de inundación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +350,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -334,16 +413,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -351,8 +430,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -634,49 +737,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="A1:AH4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="57.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -715,347 +823,491 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2" spans="1:46">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="8">
         <v>2022</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="1">
-        <v>3</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="M4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="N4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="P4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="1">
+      <c r="R4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="8">
         <v>1</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>83</v>
+      <c r="Y4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/P0002/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0002/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0002\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0002/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{6675F602-FC9E-4563-B8D1-1DEC85816560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03B1E28-DE05-4E03-9CE5-3FE4E0BA815B}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{6675F602-FC9E-4563-B8D1-1DEC85816560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FFADAC7-9282-4A5B-8E06-9B5971489BF7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +354,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -435,9 +435,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -456,7 +453,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,51 +738,88 @@
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="145.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="246.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="30.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="57.75">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -823,64 +858,64 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
@@ -890,107 +925,107 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2022</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="8">
+      <c r="V2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="7">
         <v>3</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AE2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AI2" s="9" t="s">
@@ -1023,114 +1058,114 @@
       <c r="AR2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2022</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="H3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="8">
+      <c r="T3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="7">
         <v>1</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AI3" s="9" t="s">
@@ -1163,114 +1198,114 @@
       <c r="AR3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AS3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AT3" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>2021</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="H4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="X4" s="8">
+      <c r="T4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="7">
         <v>1</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AA4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -1303,10 +1338,10 @@
       <c r="AR4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AS4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AT4" s="7" t="s">
         <v>96</v>
       </c>
     </row>

--- a/P0002/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0002/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0002/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{6675F602-FC9E-4563-B8D1-1DEC85816560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FFADAC7-9282-4A5B-8E06-9B5971489BF7}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{6675F602-FC9E-4563-B8D1-1DEC85816560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EAFA05-DB41-42C6-A149-E1669D023B29}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,8 +212,8 @@
     <t>SI</t>
   </si>
   <si>
-    <t>MODFLOW 2005 
-*MODFLOW-NWT  1.2
+    <t>MODFLOW 2005 _x000D_
+*MODFLOW-NWT  1.2_x000D_
 *MODELMUSE</t>
   </si>
   <si>
@@ -227,8 +227,7 @@
 Tiempo de corrida aprox. 10 min</t>
   </si>
   <si>
-    <t xml:space="preserve">PR0003_x000D_
-</t>
+    <t>PR0003</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -280,7 +279,7 @@
     <t>Hidrología</t>
   </si>
   <si>
-    <t>SWAT (Soil and Water Assessment Tool).
+    <t>SWAT (Soil and Water Assessment Tool)._x000D_
 QSWAT (plugin de SWAT para QGIS)</t>
   </si>
   <si>
@@ -342,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,54 +737,54 @@
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="145.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="70.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="246.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="30.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="47" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
